--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value89.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value89.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.077045787847513</v>
+        <v>4.807785987854004</v>
       </c>
       <c r="B1">
-        <v>1.278147892099187</v>
+        <v>4.002347469329834</v>
       </c>
       <c r="C1">
-        <v>1.680852309425662</v>
+        <v>3.035057783126831</v>
       </c>
       <c r="D1">
-        <v>3.994782289460009</v>
+        <v>2.659415483474731</v>
       </c>
       <c r="E1">
-        <v>3.7044592014749</v>
+        <v>1.868397831916809</v>
       </c>
     </row>
   </sheetData>
